--- a/data/cleaned_data.xlsx
+++ b/data/cleaned_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="184">
   <si>
     <t>Respondent ID</t>
   </si>
@@ -58,7 +58,13 @@
     <t>Singaporean design idea feedback</t>
   </si>
   <si>
-    <t>bc57816c-afed-4fab-b853-29e1a685b3c0</t>
+    <t>Customisation Budget Ordinal</t>
+  </si>
+  <si>
+    <t>Personalisation Budget Ordinal</t>
+  </si>
+  <si>
+    <t>277a87c3-c5d2-4aec-9d14-1a812b446da1</t>
   </si>
   <si>
     <t>20-30</t>
@@ -85,7 +91,7 @@
     <t>Centre compartment</t>
   </si>
   <si>
-    <t>100-500</t>
+    <t>under 500</t>
   </si>
   <si>
     <t>Only with professional help</t>
@@ -97,7 +103,10 @@
     <t>No, I would need a designer to model my sketch</t>
   </si>
   <si>
-    <t>62acce28-3d37-4009-8278-f2301c518349</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>7d4f5b06-9f12-441e-a38e-a6bc93808ee3</t>
   </si>
   <si>
     <t>Female</t>
@@ -112,13 +121,10 @@
     <t>Wheels;Grilles;Headlights;Side mirrors</t>
   </si>
   <si>
-    <t>under 500</t>
-  </si>
-  <si>
     <t>wheels that look like the singapore flyer</t>
   </si>
   <si>
-    <t>738ce5ff-29b2-49d5-ab65-4499e4ca9c72</t>
+    <t>25f2c0f8-9ee3-4e3c-8f20-2f17deb2f3fa</t>
   </si>
   <si>
     <t>Aesthetics;Functionality;Customisable options</t>
@@ -133,7 +139,7 @@
     <t>Yes, I can design on my own</t>
   </si>
   <si>
-    <t>59ae797a-51a5-4b2d-9f14-5fc60ed47c30</t>
+    <t>9c21c716-9fb1-45a2-bff3-c3616ae15f6f</t>
   </si>
   <si>
     <t>Price;Brand name;Aesthetics;Technological features;Functionality;Size;Customisable options;Sustainability/environment considerations</t>
@@ -145,7 +151,7 @@
     <t>Steering wheel;Centre compartment;Door handles;Dashboard</t>
   </si>
   <si>
-    <t>341e6b58-cbb3-4878-b30f-4df595acebc2</t>
+    <t>27bb1b03-8d03-4b3a-a1de-75989b6868e9</t>
   </si>
   <si>
     <t>Price;Brand name;Aesthetics;Technological features;Functionality</t>
@@ -163,7 +169,7 @@
     <t>Sg flag/ colour related car paint</t>
   </si>
   <si>
-    <t>f1b4be39-04dd-4786-b57c-17c0267be3ef</t>
+    <t>5ef31784-8e35-46a9-a923-6602b405afdb</t>
   </si>
   <si>
     <t>Own more than one car</t>
@@ -178,7 +184,7 @@
     <t>Centre compartment;Dashboard</t>
   </si>
   <si>
-    <t>c81a9db2-2591-443e-9a8a-6971fd3abe4f</t>
+    <t>1e262542-e8c7-4778-8ff2-1cf63320ffc4</t>
   </si>
   <si>
     <t>Price;Technological features;Functionality</t>
@@ -190,7 +196,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>4b3b0665-30e1-41cf-afd3-f0820ec0037a</t>
+    <t>e361806d-b6de-4499-90ff-503868b5da5c</t>
   </si>
   <si>
     <t>51-60</t>
@@ -211,13 +217,13 @@
     <t xml:space="preserve">It rains a lot so an umbrella holder or extendable shelter </t>
   </si>
   <si>
-    <t>6d7bdc42-c5eb-4ace-af1c-6c4bccc7c701</t>
+    <t>eb224247-f04c-4516-a50d-1c5c5d776ecd</t>
   </si>
   <si>
     <t>Price;Brand name;Aesthetics;Functionality;Size</t>
   </si>
   <si>
-    <t>b46ec6c3-1fe2-47dc-ada2-b607bb509c44</t>
+    <t>b562cffe-5544-4afc-a29a-b7be78db7fe5</t>
   </si>
   <si>
     <t>41-50</t>
@@ -232,7 +238,7 @@
     <t>Steering wheel</t>
   </si>
   <si>
-    <t>704a8914-046f-4bf1-8a84-1cd2fee2ae7d</t>
+    <t>8d8cdaf6-7822-45b4-95b2-73b9088b0847</t>
   </si>
   <si>
     <t>Price;Brand name;Aesthetics;Size</t>
@@ -244,7 +250,7 @@
     <t>Steering wheel;Centre compartment;Dashboard</t>
   </si>
   <si>
-    <t>5fc3049a-f493-454a-8112-acdeeda25b6c</t>
+    <t>2de2bb35-78cb-41ab-b881-b41a56710992</t>
   </si>
   <si>
     <t>Price;Brand name;Aesthetics;Technological features;Size</t>
@@ -256,7 +262,7 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t>e00d696e-f7c1-4f7a-b25b-5b71ee12fdb6</t>
+    <t>b4ba93d0-821d-4a13-bf7e-5ccd85980f03</t>
   </si>
   <si>
     <t>Brand name;Technological features;Functionality;Sustainability/environment considerations</t>
@@ -265,10 +271,10 @@
     <t>Steering wheel;Door handles;Dashboard</t>
   </si>
   <si>
-    <t>c97a4aeb-ef83-4629-a1eb-41017d82d4de</t>
-  </si>
-  <si>
-    <t>5754b36b-aa85-4f03-b606-485fda78e91b</t>
+    <t>7001e57f-c5d5-41fb-b65c-80a105b9b44e</t>
+  </si>
+  <si>
+    <t>a82a1130-196a-463d-9616-d03118905997</t>
   </si>
   <si>
     <t>Brakes</t>
@@ -277,7 +283,7 @@
     <t>Coffeeshop Iced Coffee Takeaway plastic drink holder (long and thin design, with a hook at the top and straw area)</t>
   </si>
   <si>
-    <t>d02fab1a-0531-4692-9b1f-3ee91e1429bb</t>
+    <t>d51a07a8-2bcb-43a7-b5f3-a751e7d64d16</t>
   </si>
   <si>
     <t>Price;Aesthetics;Technological features</t>
@@ -292,7 +298,7 @@
     <t>streamline body shape</t>
   </si>
   <si>
-    <t>01b45e0a-0e12-4dc2-b4fc-b04a9e41c056</t>
+    <t>854fa7d5-3a97-4c20-b779-1a68d894c1ab</t>
   </si>
   <si>
     <t>Price;Aesthetics</t>
@@ -301,7 +307,7 @@
     <t>Headlights</t>
   </si>
   <si>
-    <t>903913f5-9b1d-4d75-bab3-3f16b9f69c5f</t>
+    <t>302d05fe-f2d4-43a1-8059-c94301c8a74c</t>
   </si>
   <si>
     <t>Married with no children</t>
@@ -310,13 +316,13 @@
     <t>Price;Brand name;Technological features;Functionality;Size;Sustainability/environment considerations</t>
   </si>
   <si>
-    <t>2de45f47-089a-4156-ac5d-f65b3fcdeb45</t>
+    <t>3321a783-0dea-4b25-82d5-5068cc0c34bd</t>
   </si>
   <si>
     <t>Wheels;Side mirrors</t>
   </si>
   <si>
-    <t>5472e6de-bf5d-4c4f-b79d-4b515d134086</t>
+    <t>b9067dd5-b5e2-411f-9699-e756407c6324</t>
   </si>
   <si>
     <t>Price;Aesthetics;Technological features;Functionality</t>
@@ -325,7 +331,7 @@
     <t>Wheels;Grilles;Headlights</t>
   </si>
   <si>
-    <t>3a7d0448-3104-4178-9a7c-664a5086fe97</t>
+    <t>fbf24c4c-bbbd-4d19-90b2-1a092a47d4e5</t>
   </si>
   <si>
     <t>Price;Functionality;Sustainability/environment considerations</t>
@@ -337,7 +343,7 @@
     <t xml:space="preserve"> micro-small car 2 sitter</t>
   </si>
   <si>
-    <t>645d48c3-47a2-453a-b3ec-be5ede374f62</t>
+    <t>ebf0c59e-7ea6-48d8-934a-cca6a1db23d3</t>
   </si>
   <si>
     <t>Brand name;Aesthetics;Functionality;Size</t>
@@ -346,7 +352,7 @@
     <t>Grilles;Headlights</t>
   </si>
   <si>
-    <t>385469d4-c71e-467e-8c15-cd7c82aa5942</t>
+    <t>0b0e7f40-c830-4d90-8378-68e651ea75f0</t>
   </si>
   <si>
     <t>Prefer not to say</t>
@@ -355,13 +361,13 @@
     <t>Price;Aesthetics;Technological features;Functionality;Sustainability/environment considerations</t>
   </si>
   <si>
-    <t>a93c05f4-8f4b-4fff-879c-4d00b2717730</t>
+    <t>84e8fdc4-2380-4104-8be3-c4bb55f13019</t>
   </si>
   <si>
     <t>Price;Brand name;Technological features;Functionality</t>
   </si>
   <si>
-    <t>c826ce5f-5f5d-412d-a873-c55818f6548f</t>
+    <t>d840d4d9-52e2-4d3b-a8a7-f976b15919c3</t>
   </si>
   <si>
     <t>Price;Brand name;Technological features;Functionality;Size</t>
@@ -370,7 +376,7 @@
     <t>Centre compartment;Door handles</t>
   </si>
   <si>
-    <t>d04a1e5d-d44d-4ce0-8542-92e6df5c1eb2</t>
+    <t>5bd53ec3-f974-4d0c-85b2-4a74f8f6a174</t>
   </si>
   <si>
     <t>Price;Technological features;Functionality;Size;Sustainability/environment considerations</t>
@@ -382,19 +388,19 @@
     <t>hooks to hang my drinks from coffee shops that come in a plastic bag</t>
   </si>
   <si>
-    <t>2167af68-250a-4ddc-b225-b89542c21b8f</t>
+    <t>a3867d89-98bc-4120-bbe4-43927f8a55e4</t>
   </si>
   <si>
     <t>Steering wheel;Centre compartment;Door handles</t>
   </si>
   <si>
-    <t>8616dc4e-c802-4f67-899e-5a07e3e26a0a</t>
+    <t>85cd0b47-e5ef-4425-82ef-7ff30fb4faa8</t>
   </si>
   <si>
     <t>Door handles</t>
   </si>
   <si>
-    <t>a834cbc1-8d8f-463f-b058-19d91e52f77d</t>
+    <t>70154e2d-cd8c-4da5-a53a-6718fcbf32c4</t>
   </si>
   <si>
     <t>31-40</t>
@@ -409,10 +415,10 @@
     <t>Petrol is expensive in Singapore. Car that is very fuel efficiency. EV is welcome as well</t>
   </si>
   <si>
-    <t>f85ed257-5033-4a55-a4cc-b890b390b062</t>
-  </si>
-  <si>
-    <t>5b4dedf4-30b4-4321-ae36-1d9d49f61a81</t>
+    <t>a88fcfc5-cb7d-48bf-ad4c-af2f7457f4cc</t>
+  </si>
+  <si>
+    <t>c62c5760-17cb-4f6f-b45a-0aecea244c49</t>
   </si>
   <si>
     <t>Price;Aesthetics;Size</t>
@@ -421,7 +427,7 @@
     <t>Bumpers</t>
   </si>
   <si>
-    <t>e13cfa48-81af-4c00-8b50-ac543563f0cd</t>
+    <t>450fda14-d05b-40f6-917a-1cd05a6bac5f</t>
   </si>
   <si>
     <t>Price;Brand name;Aesthetics</t>
@@ -430,7 +436,7 @@
     <t>Wheels;Headlights</t>
   </si>
   <si>
-    <t>1c5499d6-56c1-438d-b70d-064c7c3e96ed</t>
+    <t>19f27578-22a6-4613-81c3-de21a46beb84</t>
   </si>
   <si>
     <t>Price;Brand name;Technological features;Size</t>
@@ -439,25 +445,25 @@
     <t>Grilles;Bumpers</t>
   </si>
   <si>
-    <t>9048da7c-a86c-4d10-b965-bf0b73b31fde</t>
+    <t>ef7ef565-58e1-4fe7-af07-17331bb93778</t>
   </si>
   <si>
     <t xml:space="preserve">Hook to hold packet drinks , smaller car with sporty look ,affordable(due to COE) but can make many customization, look more like hatchback cars due to small space in singapore.  </t>
   </si>
   <si>
-    <t>0245e6b4-166e-41b8-ae25-8296b4736372</t>
+    <t>9c278444-bcc7-417e-a52c-63c1270ea6e0</t>
   </si>
   <si>
     <t>Automated Aircon Temperature  regulator so driver feel comfortable without adjusting temperature  (Singapore is hot driver will lower temperature which is bad for the environment)</t>
   </si>
   <si>
-    <t>84bb4238-7fbe-40d4-85c7-2ba8a4b4e073</t>
+    <t>a5ed6693-69e9-413c-942b-912444bbb17a</t>
   </si>
   <si>
     <t>classic look</t>
   </si>
   <si>
-    <t>979505a7-d09c-461b-b048-ecf3e96ec82b</t>
+    <t>13370139-540c-4c37-a4ef-6316dd09f2a8</t>
   </si>
   <si>
     <t>Price;Brand name;Aesthetics;Technological features;Functionality;Sustainability/environment considerations</t>
@@ -466,7 +472,7 @@
     <t>Not likely</t>
   </si>
   <si>
-    <t>7fa68dbf-e571-441b-93ba-04ef1c8bfbe4</t>
+    <t>1ab42812-ab62-4670-a021-218c338f98bb</t>
   </si>
   <si>
     <t>Price;Brand name;Aesthetics;Technological features;Functionality;Size;Customisable options</t>
@@ -475,19 +481,19 @@
     <t>Solar Panel included in car to save energy.</t>
   </si>
   <si>
-    <t>4b633af3-71da-4cbd-bac5-cc4fd5cccf91</t>
+    <t>aae0ac19-da3d-4f1d-8675-80811b25ce1c</t>
   </si>
   <si>
     <t>Brand name;Technological features;Functionality;Customisable options</t>
   </si>
   <si>
-    <t>35f42e34-3133-49b0-a00a-629c5f603e61</t>
+    <t>580c56b2-65d8-4e51-99ec-8d3761d5a80d</t>
   </si>
   <si>
     <t>Sustainability/environment considerations</t>
   </si>
   <si>
-    <t>7f5860a0-3daf-47ef-bf14-d01abf625d39</t>
+    <t>2e01a0c2-3132-4131-a45f-80523d079972</t>
   </si>
   <si>
     <t>Price;Brand name;Aesthetics;Sustainability/environment considerations</t>
@@ -496,7 +502,7 @@
     <t>Wheels;Grilles;Side mirrors;Bumpers</t>
   </si>
   <si>
-    <t>3a16e3bb-3386-4ace-a706-d71ab8265c5f</t>
+    <t>29720b63-7d96-4a8f-986e-9961d97a777f</t>
   </si>
   <si>
     <t>Price;Brand name;Aesthetics;Size;Sustainability/environment considerations</t>
@@ -508,7 +514,7 @@
     <t xml:space="preserve">Bumper and Grilles can be re-designed as "Sing" words </t>
   </si>
   <si>
-    <t>79c3c4d3-5d38-4e4e-9dce-84ac376b9dd1</t>
+    <t>bf8c6c1e-5ba3-48c8-ad1a-e61680f88f84</t>
   </si>
   <si>
     <t>Wheels;Headlights;Bumpers;add body kit and change the exhaust and tune the engine</t>
@@ -517,10 +523,10 @@
     <t xml:space="preserve">make a custom body kit which is unique </t>
   </si>
   <si>
-    <t>d8fc9693-5a3d-466c-b712-9e4cf13d1a6d</t>
-  </si>
-  <si>
-    <t>f13e151a-440f-4636-a156-26363d25b045</t>
+    <t>a964d7ed-b76f-4960-ac0e-9e9dcea6c78b</t>
+  </si>
+  <si>
+    <t>9dc5ac02-f139-47dc-a838-ddc0e8f62b93</t>
   </si>
   <si>
     <t>Price;Brand name;Aesthetics;Functionality;Size;Sustainability/environment considerations</t>
@@ -529,13 +535,13 @@
     <t>unique color</t>
   </si>
   <si>
-    <t>0db1f353-95a0-49ff-a2e5-8ecd7548884a</t>
+    <t>a5328376-c000-4ecb-99d0-aa098706cf55</t>
   </si>
   <si>
     <t>Price;Brand name;Technological features</t>
   </si>
   <si>
-    <t>fd61d53b-cd6d-47a1-aeca-af4dba4f4661</t>
+    <t>dc0da528-c027-4f3d-a561-7b3f11904157</t>
   </si>
   <si>
     <t>Price;Aesthetics;Technological features;Customisable options;Sustainability/environment considerations</t>
@@ -544,19 +550,19 @@
     <t>Centre compartment;Door handles;Dashboard</t>
   </si>
   <si>
-    <t>ac112685-1716-47d3-9965-4189250a0fe3</t>
+    <t>e83b9d20-070f-4dae-9697-9f41a614731d</t>
   </si>
   <si>
     <t xml:space="preserve">compact, cheapest &amp; safety design </t>
   </si>
   <si>
-    <t>05a42c02-68cf-414f-89f4-d05b832bc9b3</t>
+    <t>93836189-09b4-4ac8-a8cd-d98cbec68592</t>
   </si>
   <si>
     <t>Price;Technological features;Functionality;Customisable options;Sustainability/environment considerations</t>
   </si>
   <si>
-    <t>f2501237-8307-4a6f-8c43-ac7b020b0285</t>
+    <t>d9d67523-e86d-45d9-9d84-e635563ace69</t>
   </si>
   <si>
     <t>Can be linked with some brands</t>
@@ -577,7 +583,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -630,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -641,10 +647,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -652,6 +658,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,7 +964,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -966,18 +975,20 @@
     <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="50.14785714285715" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="42.005" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="38.29071428571429" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="48.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="42.57642857142857" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,2135 +1031,2511 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="5">
+        <v>2</v>
+      </c>
+      <c r="P2" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="N3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5">
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="5">
+        <v>3</v>
+      </c>
+      <c r="P4" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="L5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="5">
+        <v>2</v>
+      </c>
+      <c r="P5" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="O6" s="5">
+        <v>4</v>
+      </c>
+      <c r="P6" s="5">
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="5">
+        <v>3</v>
+      </c>
+      <c r="P7" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="5">
+        <v>3</v>
+      </c>
+      <c r="P8" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="N9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2</v>
+      </c>
+      <c r="P9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="I10" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J10" s="5">
         <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="5">
+        <v>2</v>
+      </c>
+      <c r="P11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="N11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="5">
+        <v>2</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="5">
+        <v>2</v>
+      </c>
+      <c r="P13" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="5">
+        <v>4</v>
+      </c>
+      <c r="P14" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+        <v>28</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="5">
+        <v>4</v>
+      </c>
+      <c r="P15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J16" s="5">
         <v>0</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="M17" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="O17" s="5">
+        <v>3</v>
+      </c>
+      <c r="P17" s="5">
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="J18" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="5">
+        <v>4</v>
+      </c>
+      <c r="P18" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="5">
+        <v>4</v>
+      </c>
+      <c r="P19" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="5">
+        <v>2</v>
+      </c>
+      <c r="P20" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N21" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="5">
+        <v>3</v>
+      </c>
+      <c r="P21" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="O22" s="5">
+        <v>2</v>
+      </c>
+      <c r="P22" s="5">
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+        <v>40</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="5">
+        <v>3</v>
+      </c>
+      <c r="P23" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J24" s="5">
         <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L24" s="5">
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+        <v>40</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="5">
+        <v>1</v>
+      </c>
+      <c r="P24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J25" s="5">
         <v>0</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="5">
+        <v>1</v>
+      </c>
+      <c r="P25" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="5">
+        <v>3</v>
+      </c>
+      <c r="P26" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="O27" s="5">
+        <v>2</v>
+      </c>
+      <c r="P27" s="5">
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="N28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" s="5">
+        <v>2</v>
+      </c>
+      <c r="P28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J29" s="5">
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L29" s="5">
         <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="5">
+        <v>1</v>
+      </c>
+      <c r="P29" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="O30" s="5">
+        <v>3</v>
+      </c>
+      <c r="P30" s="5">
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G31" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N31" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="5">
+        <v>4</v>
+      </c>
+      <c r="P31" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N32" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="5">
+        <v>3</v>
+      </c>
+      <c r="P32" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="3"/>
+      <c r="N33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="5">
+        <v>3</v>
+      </c>
+      <c r="P33" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" s="3"/>
+      <c r="N34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" s="5">
+        <v>3</v>
+      </c>
+      <c r="P34" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="O35" s="5">
+        <v>3</v>
+      </c>
+      <c r="P35" s="5">
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="N36" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="O36" s="5">
+        <v>4</v>
+      </c>
+      <c r="P36" s="5">
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="N37" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="O37" s="5">
+        <v>4</v>
+      </c>
+      <c r="P37" s="5">
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N38" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" s="5">
+        <v>3</v>
+      </c>
+      <c r="P38" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="O39" s="5">
+        <v>2</v>
+      </c>
+      <c r="P39" s="5">
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N40" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="5">
+        <v>4</v>
+      </c>
+      <c r="P40" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N41" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="5">
+        <v>3</v>
+      </c>
+      <c r="P41" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="M42" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N42" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="5">
+        <v>3</v>
+      </c>
+      <c r="P42" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O43" s="5">
+        <v>3</v>
+      </c>
+      <c r="P43" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
-      <c r="A44" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="K44" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L44" s="5">
         <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="O44" s="5">
+        <v>2</v>
+      </c>
+      <c r="P44" s="5">
+        <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N45" s="3"/>
+      <c r="N45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" s="5">
+        <v>2</v>
+      </c>
+      <c r="P45" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="M46" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="O46" s="5">
+        <v>3</v>
+      </c>
+      <c r="P46" s="5">
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+        <v>28</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" s="5">
+        <v>4</v>
+      </c>
+      <c r="P47" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J48" s="5">
         <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N48" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" s="5">
+        <v>1</v>
+      </c>
+      <c r="P48" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="O49" s="5">
+        <v>3</v>
+      </c>
+      <c r="P49" s="5">
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N50" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" s="5">
+        <v>4</v>
+      </c>
+      <c r="P50" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="O51" s="5">
+        <v>3</v>
+      </c>
+      <c r="P51" s="5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
